--- a/data/content_communication_broadcast.xlsx
+++ b/data/content_communication_broadcast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="15">
   <si>
     <t>Sender_ID</t>
   </si>
@@ -43,19 +43,22 @@
     <t>F</t>
   </si>
   <si>
-    <t>[{'direction': 'north', 'obstacles': []}, {'direction': 'south', 'obstacles': []}, {'direction': 'east', 'obstacles': []}, {'direction': 'west', 'obstacles': []}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs01', 28.72), ('obs05', 38.39), ('obs06', 42.38), ('obs07', 20.71)]}, {'direction': 'south', 'obstacles': [('obs01', 28.72), ('obs05', 38.39), ('obs06', 42.38), ('obs07', 20.71)]}, {'direction': 'east', 'obstacles': [('obs01', 28.72), ('obs05', 38.39), ('obs06', 42.38), ('obs07', 20.71)]}, {'direction': 'west', 'obstacles': [('obs01', 28.72), ('obs05', 38.39), ('obs06', 42.38), ('obs07', 20.71)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs03', 24.72), ('obs04', 5.57), ('obs06', 6.19), ('obs09', 24.06), ('obs10', 33.57)]}, {'direction': 'south', 'obstacles': [('obs03', 24.72), ('obs04', 5.57), ('obs06', 6.19), ('obs09', 24.06), ('obs10', 33.57)]}, {'direction': 'east', 'obstacles': [('obs03', 24.72), ('obs04', 5.57), ('obs06', 6.19), ('obs09', 24.06), ('obs10', 33.57)]}, {'direction': 'west', 'obstacles': [('obs03', 24.72), ('obs04', 5.57), ('obs06', 6.19), ('obs09', 24.06), ('obs10', 33.57)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs01', 6.99), ('obs02', 43.75), ('obs05', 3.94), ('obs07', 15.72)]}, {'direction': 'south', 'obstacles': [('obs01', 6.99), ('obs02', 43.75), ('obs05', 3.94), ('obs07', 15.72)]}, {'direction': 'east', 'obstacles': [('obs01', 6.99), ('obs02', 43.75), ('obs05', 3.94), ('obs07', 15.72)]}, {'direction': 'west', 'obstacles': [('obs01', 6.99), ('obs02', 43.75), ('obs05', 3.94), ('obs07', 15.72)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs07', 22.0)]}, {'direction': 'south', 'obstacles': [('obs07', 22.0)]}, {'direction': 'east', 'obstacles': [('obs07', 22.0)]}, {'direction': 'west', 'obstacles': [('obs07', 22.0)]}]</t>
+    <t>[{'direction': 'north', 'obstacles': [('obs05', 5.03), ('obs10', 8.65)]}, {'direction': 'south', 'obstacles': [('obs05', 5.03), ('obs10', 8.65)]}, {'direction': 'east', 'obstacles': [('obs05', 5.03), ('obs10', 8.65)]}, {'direction': 'west', 'obstacles': [('obs05', 5.03), ('obs10', 8.65)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs05', 8.34), ('obs10', 21.27)]}, {'direction': 'south', 'obstacles': [('obs05', 8.34), ('obs10', 21.27)]}, {'direction': 'east', 'obstacles': [('obs05', 8.34), ('obs10', 21.27)]}, {'direction': 'west', 'obstacles': [('obs05', 8.34), ('obs10', 21.27)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs01', 10.46), ('obs03', 41.94), ('obs06', 46.97), ('obs10', 16.15)]}, {'direction': 'south', 'obstacles': [('obs01', 10.46), ('obs03', 41.94), ('obs06', 46.97), ('obs10', 16.15)]}, {'direction': 'east', 'obstacles': [('obs01', 10.46), ('obs03', 41.94), ('obs06', 46.97), ('obs10', 16.15)]}, {'direction': 'west', 'obstacles': [('obs01', 10.46), ('obs03', 41.94), ('obs06', 46.97), ('obs10', 16.15)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs02', 25.31), ('obs03', 5.3), ('obs07', 27.08), ('obs08', 33.54), ('obs09', 30.94), ('obs10', 30.39)]}, {'direction': 'south', 'obstacles': [('obs02', 25.31), ('obs03', 5.3), ('obs07', 27.08), ('obs08', 33.54), ('obs09', 30.94), ('obs10', 30.39)]}, {'direction': 'east', 'obstacles': [('obs02', 25.31), ('obs03', 5.3), ('obs07', 27.08), ('obs08', 33.54), ('obs09', 30.94), ('obs10', 30.39)]}, {'direction': 'west', 'obstacles': [('obs02', 25.31), ('obs03', 5.3), ('obs07', 27.08), ('obs08', 33.54), ('obs09', 30.94), ('obs10', 30.39)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs01', 25.99), ('obs06', 11.58)]}, {'direction': 'south', 'obstacles': [('obs01', 25.99), ('obs06', 11.58)]}, {'direction': 'east', 'obstacles': [('obs01', 25.99), ('obs06', 11.58)]}, {'direction': 'west', 'obstacles': [('obs01', 25.99), ('obs06', 11.58)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs01', 19.12)]}, {'direction': 'south', 'obstacles': [('obs01', 19.12)]}, {'direction': 'east', 'obstacles': [('obs01', 19.12)]}, {'direction': 'west', 'obstacles': [('obs01', 19.12)]}]</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -504,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -515,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -526,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -537,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -548,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -559,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -570,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -581,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -592,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -603,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -614,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -625,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -636,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -647,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -658,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -669,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -680,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -691,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -702,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -713,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -724,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -735,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -746,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -757,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
